--- a/RecruitmentPortal/CandidatesAppliedToJobs.xlsx
+++ b/RecruitmentPortal/CandidatesAppliedToJobs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>JobApplicationId</t>
   </si>
@@ -20,13 +20,16 @@
     <t>UserId</t>
   </si>
   <si>
-    <t>UserName</t>
+    <t>User Name</t>
   </si>
   <si>
     <t>JobId</t>
   </si>
   <si>
-    <t>JobTitle</t>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>AppliedDate</t>
@@ -38,10 +41,37 @@
     <t>Developer</t>
   </si>
   <si>
+    <t>DotNet Developer</t>
+  </si>
+  <si>
     <t>2024-06-14 18:39:07</t>
   </si>
   <si>
     <t>2024-06-16 12:17:21</t>
+  </si>
+  <si>
+    <t>Java Developer</t>
+  </si>
+  <si>
+    <t>Nikhil Gode</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Manual Tester</t>
+  </si>
+  <si>
+    <t>2024-06-19 17:14:51</t>
+  </si>
+  <si>
+    <t>2024-06-19 12:44:34</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>HR Intern</t>
   </si>
 </sst>
 </file>
@@ -88,7 +118,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -113,6 +143,9 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
@@ -122,16 +155,19 @@
         <v>3</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0">
         <v>3</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -142,17 +178,20 @@
         <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="0">
         <v>3</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="G3" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
@@ -162,16 +201,88 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="0">
         <v>5</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0">
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="0">
+        <v>4</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="0">
+        <v>3</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="0">
+        <v>6</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
